--- a/Integration Quality/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
+++ b/Integration Quality/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -41,9 +41,6 @@
     <font>
       <b val="1"/>
       <color rgb="00591F6A"/>
-    </font>
-    <font>
-      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -93,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -109,9 +106,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -479,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ15"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,59 +700,59 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>22217533</v>
+        <v>22443138</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>23089466</v>
+        <v>23286164</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45797.55833333333</v>
+        <v>45831.58079861111</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45813.75625</v>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
-        </is>
-      </c>
-      <c r="G2" s="7" t="inlineStr">
-        <is>
-          <t>31 dias ou +</t>
+        <v>45831.58729166666</v>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>IITJCB03</t>
+          <t>QZUVKB</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>CRISTINA CASTRO CAZELA/LUZIA</t>
+          <t>ALDA MARINA DE CAMPOS MELO</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L2" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M2" s="6" t="n">
-        <v>45797.05763888889</v>
+        <v>45828.58055555556</v>
       </c>
       <c r="N2" s="5" t="inlineStr">
         <is>
@@ -777,12 +771,12 @@
       </c>
       <c r="Q2" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R2" s="5" t="inlineStr">
         <is>
-          <t>Faturado</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S2" s="5" t="inlineStr">
@@ -802,7 +796,7 @@
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Kontrip - Vendas Cartao de Credito</t>
+          <t>Vpr Consultoria, Eventos, Servicos e Treinamentos Ltda</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
@@ -812,11 +806,11 @@
       </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y2" s="5" t="n">
-        <v>2233171013</v>
+        <v>2139988704</v>
       </c>
       <c r="Z2" s="5" t="inlineStr">
         <is>
@@ -829,10 +823,10 @@
         </is>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>1718.24</v>
+        <v>2015.77</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>116.66</v>
+        <v>59.95</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>0</v>
@@ -847,16 +841,16 @@
         <v>0</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>41.2</v>
+        <v>120.95</v>
       </c>
       <c r="AI2" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ2" s="5" t="inlineStr">
         <is>
-          <t>Verificação de bilhetes: Bilhete 2233171013 já sendo utilizado para este fornecedor.</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK2" s="5" t="inlineStr">
@@ -866,17 +860,17 @@
       </c>
       <c r="AL2" s="5" t="inlineStr">
         <is>
-          <t>Bilhete duplicado</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM2" s="5" t="inlineStr">
         <is>
-          <t>Bilhete Já Contabilizado</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN2" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO2" s="5" t="inlineStr">
@@ -891,65 +885,65 @@
       </c>
       <c r="AQ2" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>22217533</v>
+        <v>22443418</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>23089467</v>
+        <v>23286368</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>45797.55833333333</v>
+        <v>45831.61105324074</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>45813.75625</v>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>16 a 23 dias</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>31 dias ou +</t>
+        <v>45831.61527777778</v>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>IITJCB03</t>
+          <t>HRTRXM</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>CRISTINE MARTINEZ MEIRA/ELAINE</t>
+          <t>SILVIO CRESPO</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L3" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M3" s="6" t="n">
-        <v>45797.05763888889</v>
+        <v>45828.61041666667</v>
       </c>
       <c r="N3" s="5" t="inlineStr">
         <is>
@@ -968,12 +962,12 @@
       </c>
       <c r="Q3" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R3" s="5" t="inlineStr">
         <is>
-          <t>Faturado</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S3" s="5" t="inlineStr">
@@ -993,7 +987,7 @@
       </c>
       <c r="V3" s="5" t="inlineStr">
         <is>
-          <t>Kontrip - Vendas Cartao de Credito</t>
+          <t>Grana Capital Tecnologia Em Investimentos Ltda</t>
         </is>
       </c>
       <c r="W3" s="5" t="inlineStr">
@@ -1003,11 +997,11 @@
       </c>
       <c r="X3" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y3" s="5" t="n">
-        <v>2233171014</v>
+        <v>2139949448</v>
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
@@ -1020,10 +1014,10 @@
         </is>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>1718.24</v>
+        <v>198.7</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>116.66</v>
+        <v>34.11</v>
       </c>
       <c r="AD3" s="5" t="n">
         <v>0</v>
@@ -1038,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>0</v>
+        <v>11.92</v>
       </c>
       <c r="AI3" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ3" s="5" t="inlineStr">
         <is>
-          <t>Verificação de bilhetes: Bilhete 2233171013 já sendo utilizado para este fornecedor.</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK3" s="5" t="inlineStr">
@@ -1057,17 +1051,17 @@
       </c>
       <c r="AL3" s="5" t="inlineStr">
         <is>
-          <t>Bilhete duplicado</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM3" s="5" t="inlineStr">
         <is>
-          <t>Bilhete Já Contabilizado</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN3" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO3" s="5" t="inlineStr">
@@ -1082,16 +1076,16 @@
       </c>
       <c r="AQ3" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>22389368</v>
+        <v>22443698</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>23242091</v>
+        <v>23286625</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
@@ -1099,24 +1093,24 @@
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45821.40902777778</v>
+        <v>45831.63736111111</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>45821.41111111111</v>
+        <v>45831.63805555556</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>KDMLXO</t>
+          <t>UGDCFT</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
@@ -1126,7 +1120,7 @@
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>PESSOA/VALTON</t>
+          <t>FERNANDES/DANIEL</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
@@ -1140,7 +1134,7 @@
         </is>
       </c>
       <c r="M4" s="6" t="n">
-        <v>45821.40763888889</v>
+        <v>45831.59166666667</v>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
@@ -1179,12 +1173,12 @@
       </c>
       <c r="U4" s="5" t="inlineStr">
         <is>
-          <t>Grupo Kontrip</t>
+          <t>Independente</t>
         </is>
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>Pessoa e Pessoa Advogados Associados</t>
+          <t>Tap Air Portugal</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
@@ -1194,11 +1188,11 @@
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y4" s="5" t="n">
-        <v>2236807478</v>
+        <v>2140079741</v>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
@@ -1211,10 +1205,10 @@
         </is>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>2108.64</v>
+        <v>928.1</v>
       </c>
       <c r="AC4" s="5" t="n">
-        <v>91.56999999999999</v>
+        <v>50.92</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>0</v>
@@ -1229,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="n">
-        <v>0</v>
+        <v>55.69</v>
       </c>
       <c r="AI4" s="5" t="inlineStr">
         <is>
@@ -1279,59 +1273,59 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>22389421</v>
+        <v>22443998</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>23242153</v>
+        <v>23286896</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>45821.41597222222</v>
+        <v>45831.67209490741</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>45821.42083333333</v>
+        <v>45831.67363425926</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>LA9575118FYTL</t>
+          <t>LA9574694UPEM</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>ISABELLA AZEVEDO</t>
+          <t>rui pinhal/mario</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L5" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M5" s="6" t="n">
-        <v>45821.41597222222</v>
+        <v>45831.59652777778</v>
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
@@ -1350,12 +1344,12 @@
       </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S5" s="5" t="inlineStr">
@@ -1370,12 +1364,12 @@
       </c>
       <c r="U5" s="5" t="inlineStr">
         <is>
-          <t>Grupo Kontrip</t>
+          <t>Independente</t>
         </is>
       </c>
       <c r="V5" s="5" t="inlineStr">
         <is>
-          <t>Opportunity Gestora</t>
+          <t>Tap Air Portugal</t>
         </is>
       </c>
       <c r="W5" s="5" t="inlineStr">
@@ -1389,7 +1383,7 @@
         </is>
       </c>
       <c r="Y5" s="5" t="n">
-        <v>2236738225</v>
+        <v>2238221759</v>
       </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
@@ -1402,10 +1396,10 @@
         </is>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>630.8200000000001</v>
+        <v>919.11</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>78.38</v>
+        <v>82.36</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>0</v>
@@ -1420,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>105.66</v>
+        <v>13.79</v>
       </c>
       <c r="AI5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ5" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t>Centro de custo não preenchido! (ACC01)</t>
         </is>
       </c>
       <c r="AK5" s="5" t="inlineStr">
@@ -1439,17 +1433,17 @@
       </c>
       <c r="AL5" s="5" t="inlineStr">
         <is>
+          <t>Centro de custo</t>
+        </is>
+      </c>
+      <c r="AM5" s="5" t="inlineStr">
+        <is>
           <t>Falta de informação Gerencial</t>
         </is>
       </c>
-      <c r="AM5" s="5" t="inlineStr">
-        <is>
-          <t>Rateio de centro de custo/projeto</t>
-        </is>
-      </c>
       <c r="AN5" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO5" s="5" t="inlineStr">
@@ -1464,16 +1458,16 @@
       </c>
       <c r="AQ5" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>22382280</v>
+        <v>22442897</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>23235464</v>
+        <v>23285884</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
@@ -1481,24 +1475,24 @@
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45820.50277777778</v>
+        <v>45831.55122685185</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45820.50694444445</v>
+        <v>45831.55306712963</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>HTLFXN</t>
+          <t>FDUEIN</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
@@ -1508,7 +1502,7 @@
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>FELIPE ARCOVERDE/ROBERTA</t>
+          <t>Ribeiro Guth/Alberto</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
@@ -1522,7 +1516,7 @@
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45820.50069444445</v>
+        <v>45831.54930555556</v>
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
@@ -1566,7 +1560,7 @@
       </c>
       <c r="V6" s="5" t="inlineStr">
         <is>
-          <t>Pailon Comunicacao Visual Ltda</t>
+          <t>Matterhorn Infraestrutura Gestao de Investimentos Ltda</t>
         </is>
       </c>
       <c r="W6" s="5" t="inlineStr">
@@ -1580,7 +1574,7 @@
         </is>
       </c>
       <c r="Y6" s="5" t="n">
-        <v>2236741167</v>
+        <v>2238191518</v>
       </c>
       <c r="Z6" s="5" t="inlineStr">
         <is>
@@ -1593,10 +1587,10 @@
         </is>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>928.95</v>
+        <v>2498.21</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>387.73</v>
+        <v>289.52</v>
       </c>
       <c r="AD6" s="5" t="n">
         <v>0</v>
@@ -1620,7 +1614,7 @@
       </c>
       <c r="AJ6" s="5" t="inlineStr">
         <is>
-          <t>Venda concluída automaticamente</t>
+          <t>Centro de custo não preenchido! (ACC01) Solicitante não preenchido! (ACC01)</t>
         </is>
       </c>
       <c r="AK6" s="5" t="inlineStr">
@@ -1630,17 +1624,17 @@
       </c>
       <c r="AL6" s="5" t="inlineStr">
         <is>
-          <t>Não identificado</t>
+          <t>Mais de um campo não preenchido</t>
         </is>
       </c>
       <c r="AM6" s="5" t="inlineStr">
         <is>
-          <t>Análise Benner</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AN6" s="5" t="inlineStr">
         <is>
-          <t>Sistema</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO6" s="5" t="inlineStr">
@@ -1661,10 +1655,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>22383390</v>
+        <v>22443137</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>23236596</v>
+        <v>23286108</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
@@ -1672,24 +1666,24 @@
         </is>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45820.61666666667</v>
+        <v>45831.58091435185</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45820.61875</v>
+        <v>45831.58263888889</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>OIUN2M</t>
+          <t>LA9577948KSFD</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
@@ -1699,7 +1693,7 @@
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>Piccinin/Clayton</t>
+          <t>ARAUJO/BENITO</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
@@ -1713,7 +1707,7 @@
         </is>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45820.61527777778</v>
+        <v>45831.43680555555</v>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
@@ -1757,7 +1751,7 @@
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>Central de Registro de Direitos Creditorios S.a.</t>
+          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
@@ -1767,11 +1761,11 @@
       </c>
       <c r="X7" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y7" s="5" t="n">
-        <v>594413750</v>
+        <v>2238198211</v>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
@@ -1784,10 +1778,10 @@
         </is>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>130</v>
+        <v>1161.19</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>0</v>
+        <v>48.16</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>0</v>
@@ -1802,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>0</v>
+        <v>487.71</v>
       </c>
       <c r="AI7" s="5" t="inlineStr">
         <is>
@@ -1811,7 +1805,7 @@
       </c>
       <c r="AJ7" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
         </is>
       </c>
       <c r="AK7" s="5" t="inlineStr">
@@ -1821,12 +1815,12 @@
       </c>
       <c r="AL7" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Bilhete duplicado</t>
         </is>
       </c>
       <c r="AM7" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Bilhete Já Contabilizado</t>
         </is>
       </c>
       <c r="AN7" s="5" t="inlineStr">
@@ -1852,35 +1846,35 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>22383426</v>
+        <v>22443137</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>23236636</v>
+        <v>23286109</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>45820.61944444444</v>
+        <v>45831.58091435185</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>45820.62152777778</v>
+        <v>45831.58263888889</v>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>LPJEGX</t>
+          <t>LA9577948KSFD</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
@@ -1890,7 +1884,7 @@
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>Junior Lustri/Vitor</t>
+          <t>SILVA/SUELLEN</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
@@ -1904,7 +1898,7 @@
         </is>
       </c>
       <c r="M8" s="6" t="n">
-        <v>45820.61736111111</v>
+        <v>45831.43680555555</v>
       </c>
       <c r="N8" s="5" t="inlineStr">
         <is>
@@ -1948,7 +1942,7 @@
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>Central de Registro de Direitos Creditorios S.a.</t>
+          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
@@ -1958,11 +1952,11 @@
       </c>
       <c r="X8" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y8" s="5" t="n">
-        <v>259059399</v>
+        <v>2238198212</v>
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
@@ -1975,10 +1969,10 @@
         </is>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>100</v>
+        <v>1161.22</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>0</v>
+        <v>48.16</v>
       </c>
       <c r="AD8" s="5" t="n">
         <v>0</v>
@@ -2002,7 +1996,7 @@
       </c>
       <c r="AJ8" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
         </is>
       </c>
       <c r="AK8" s="5" t="inlineStr">
@@ -2012,12 +2006,12 @@
       </c>
       <c r="AL8" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Bilhete duplicado</t>
         </is>
       </c>
       <c r="AM8" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Bilhete Já Contabilizado</t>
         </is>
       </c>
       <c r="AN8" s="5" t="inlineStr">
@@ -2043,35 +2037,35 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>22382744</v>
+        <v>22443137</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>23235932</v>
+        <v>23286110</v>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC03</t>
         </is>
       </c>
       <c r="D9" s="6" t="n">
-        <v>45820.55208333334</v>
+        <v>45831.58091435185</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>45820.55486111111</v>
+        <v>45831.58263888889</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>HHJ7RS</t>
+          <t>LA9577948KSFD</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
@@ -2081,7 +2075,7 @@
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>Cruz/André</t>
+          <t>Marques/Jonnata</t>
         </is>
       </c>
       <c r="K9" s="5" t="inlineStr">
@@ -2095,7 +2089,7 @@
         </is>
       </c>
       <c r="M9" s="6" t="n">
-        <v>45820.55208333334</v>
+        <v>45831.43680555555</v>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
@@ -2139,7 +2133,7 @@
       </c>
       <c r="V9" s="5" t="inlineStr">
         <is>
-          <t>Safira Gestao E Prestacao De Servicos Em Energia</t>
+          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
         </is>
       </c>
       <c r="W9" s="5" t="inlineStr">
@@ -2149,11 +2143,11 @@
       </c>
       <c r="X9" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y9" s="5" t="n">
-        <v>662108566</v>
+        <v>2238198213</v>
       </c>
       <c r="Z9" s="5" t="inlineStr">
         <is>
@@ -2166,10 +2160,10 @@
         </is>
       </c>
       <c r="AB9" s="5" t="n">
-        <v>260</v>
+        <v>1161.22</v>
       </c>
       <c r="AC9" s="5" t="n">
-        <v>0</v>
+        <v>48.16</v>
       </c>
       <c r="AD9" s="5" t="n">
         <v>0</v>
@@ -2193,7 +2187,7 @@
       </c>
       <c r="AJ9" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
         </is>
       </c>
       <c r="AK9" s="5" t="inlineStr">
@@ -2203,12 +2197,12 @@
       </c>
       <c r="AL9" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Bilhete duplicado</t>
         </is>
       </c>
       <c r="AM9" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Bilhete Já Contabilizado</t>
         </is>
       </c>
       <c r="AN9" s="5" t="inlineStr">
@@ -2234,35 +2228,35 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>22382765</v>
+        <v>22443137</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>23235958</v>
+        <v>23286111</v>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC04</t>
         </is>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45820.55763888889</v>
+        <v>45831.58091435185</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45820.55972222222</v>
+        <v>45831.58263888889</v>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>HHJ7RS</t>
+          <t>LA9577948KSFD</t>
         </is>
       </c>
       <c r="I10" s="5" t="inlineStr">
@@ -2272,7 +2266,7 @@
       </c>
       <c r="J10" s="5" t="inlineStr">
         <is>
-          <t>Cruz/André</t>
+          <t>JANUARIO/BRUNO</t>
         </is>
       </c>
       <c r="K10" s="5" t="inlineStr">
@@ -2286,7 +2280,7 @@
         </is>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45820.55625</v>
+        <v>45831.43680555555</v>
       </c>
       <c r="N10" s="5" t="inlineStr">
         <is>
@@ -2330,7 +2324,7 @@
       </c>
       <c r="V10" s="5" t="inlineStr">
         <is>
-          <t>Safira Gestao E Prestacao De Servicos Em Energia</t>
+          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
         </is>
       </c>
       <c r="W10" s="5" t="inlineStr">
@@ -2340,11 +2334,11 @@
       </c>
       <c r="X10" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y10" s="5" t="n">
-        <v>107335499</v>
+        <v>2238198214</v>
       </c>
       <c r="Z10" s="5" t="inlineStr">
         <is>
@@ -2357,10 +2351,10 @@
         </is>
       </c>
       <c r="AB10" s="5" t="n">
-        <v>130</v>
+        <v>1161.22</v>
       </c>
       <c r="AC10" s="5" t="n">
-        <v>0</v>
+        <v>48.16</v>
       </c>
       <c r="AD10" s="5" t="n">
         <v>0</v>
@@ -2384,7 +2378,7 @@
       </c>
       <c r="AJ10" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
         </is>
       </c>
       <c r="AK10" s="5" t="inlineStr">
@@ -2394,12 +2388,12 @@
       </c>
       <c r="AL10" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Bilhete duplicado</t>
         </is>
       </c>
       <c r="AM10" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Bilhete Já Contabilizado</t>
         </is>
       </c>
       <c r="AN10" s="5" t="inlineStr">
@@ -2425,35 +2419,35 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>22382765</v>
+        <v>22443137</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>23235959</v>
+        <v>23286112</v>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC05</t>
         </is>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45820.55763888889</v>
+        <v>45831.58091435185</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45820.55972222222</v>
+        <v>45831.58263888889</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>HHJ7RS</t>
+          <t>LA9577948KSFD</t>
         </is>
       </c>
       <c r="I11" s="5" t="inlineStr">
@@ -2463,7 +2457,7 @@
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>Lorencete Pinto/Ricardo</t>
+          <t>ALBINO/GUSTAVO</t>
         </is>
       </c>
       <c r="K11" s="5" t="inlineStr">
@@ -2477,7 +2471,7 @@
         </is>
       </c>
       <c r="M11" s="6" t="n">
-        <v>45820.55625</v>
+        <v>45831.43680555555</v>
       </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
@@ -2521,7 +2515,7 @@
       </c>
       <c r="V11" s="5" t="inlineStr">
         <is>
-          <t>Safira Gestao E Prestacao De Servicos Em Energia</t>
+          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
         </is>
       </c>
       <c r="W11" s="5" t="inlineStr">
@@ -2531,11 +2525,11 @@
       </c>
       <c r="X11" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y11" s="5" t="n">
-        <v>305056289</v>
+        <v>2238198215</v>
       </c>
       <c r="Z11" s="5" t="inlineStr">
         <is>
@@ -2548,10 +2542,10 @@
         </is>
       </c>
       <c r="AB11" s="5" t="n">
-        <v>130</v>
+        <v>1161.22</v>
       </c>
       <c r="AC11" s="5" t="n">
-        <v>0</v>
+        <v>48.16</v>
       </c>
       <c r="AD11" s="5" t="n">
         <v>0</v>
@@ -2575,7 +2569,7 @@
       </c>
       <c r="AJ11" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
         </is>
       </c>
       <c r="AK11" s="5" t="inlineStr">
@@ -2585,12 +2579,12 @@
       </c>
       <c r="AL11" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Bilhete duplicado</t>
         </is>
       </c>
       <c r="AM11" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Bilhete Já Contabilizado</t>
         </is>
       </c>
       <c r="AN11" s="5" t="inlineStr">
@@ -2616,35 +2610,35 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>22389641</v>
+        <v>22443137</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>23242384</v>
+        <v>23286113</v>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC06</t>
         </is>
       </c>
       <c r="D12" s="6" t="n">
-        <v>45821.44375</v>
+        <v>45831.58091435185</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>45821.44791666666</v>
+        <v>45831.58263888889</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>LA9577828ABPY</t>
+          <t>LA9577948KSFD</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
@@ -2654,7 +2648,7 @@
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>BARBOSA MENDONÇA/ALEXANDRE</t>
+          <t>CAMARGO/JULIANA</t>
         </is>
       </c>
       <c r="K12" s="5" t="inlineStr">
@@ -2668,7 +2662,7 @@
         </is>
       </c>
       <c r="M12" s="6" t="n">
-        <v>45821.44375</v>
+        <v>45831.43680555555</v>
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
@@ -2712,7 +2706,7 @@
       </c>
       <c r="V12" s="5" t="inlineStr">
         <is>
-          <t>The School Of Life Escola De Filosofia Ltda</t>
+          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
         </is>
       </c>
       <c r="W12" s="5" t="inlineStr">
@@ -2726,7 +2720,7 @@
         </is>
       </c>
       <c r="Y12" s="5" t="n">
-        <v>2236871912</v>
+        <v>2238198216</v>
       </c>
       <c r="Z12" s="5" t="inlineStr">
         <is>
@@ -2739,10 +2733,10 @@
         </is>
       </c>
       <c r="AB12" s="5" t="n">
-        <v>0.01</v>
+        <v>1161.22</v>
       </c>
       <c r="AC12" s="5" t="n">
-        <v>0</v>
+        <v>48.16</v>
       </c>
       <c r="AD12" s="5" t="n">
         <v>0</v>
@@ -2766,7 +2760,7 @@
       </c>
       <c r="AJ12" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
         </is>
       </c>
       <c r="AK12" s="5" t="inlineStr">
@@ -2776,12 +2770,12 @@
       </c>
       <c r="AL12" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Bilhete duplicado</t>
         </is>
       </c>
       <c r="AM12" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Bilhete Já Contabilizado</t>
         </is>
       </c>
       <c r="AN12" s="5" t="inlineStr">
@@ -2807,35 +2801,35 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>22389641</v>
+        <v>22443137</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>23242385</v>
+        <v>23286114</v>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC07</t>
         </is>
       </c>
       <c r="D13" s="6" t="n">
-        <v>45821.44375</v>
+        <v>45831.58091435185</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>45821.44791666666</v>
+        <v>45831.58263888889</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>LA9577828ABPY</t>
+          <t>LA9577948KSFD</t>
         </is>
       </c>
       <c r="I13" s="5" t="inlineStr">
@@ -2845,7 +2839,7 @@
       </c>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t>REAL DE LIMA/ERIKA</t>
+          <t>RACHINSKI/RAFAEL</t>
         </is>
       </c>
       <c r="K13" s="5" t="inlineStr">
@@ -2859,7 +2853,7 @@
         </is>
       </c>
       <c r="M13" s="6" t="n">
-        <v>45821.44375</v>
+        <v>45831.43680555555</v>
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
@@ -2903,7 +2897,7 @@
       </c>
       <c r="V13" s="5" t="inlineStr">
         <is>
-          <t>The School Of Life Escola De Filosofia Ltda</t>
+          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
         </is>
       </c>
       <c r="W13" s="5" t="inlineStr">
@@ -2917,7 +2911,7 @@
         </is>
       </c>
       <c r="Y13" s="5" t="n">
-        <v>2236871584</v>
+        <v>2238198216</v>
       </c>
       <c r="Z13" s="5" t="inlineStr">
         <is>
@@ -2930,10 +2924,10 @@
         </is>
       </c>
       <c r="AB13" s="5" t="n">
-        <v>0</v>
+        <v>1161.22</v>
       </c>
       <c r="AC13" s="5" t="n">
-        <v>0</v>
+        <v>48.16</v>
       </c>
       <c r="AD13" s="5" t="n">
         <v>0</v>
@@ -2957,7 +2951,7 @@
       </c>
       <c r="AJ13" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
         </is>
       </c>
       <c r="AK13" s="5" t="inlineStr">
@@ -2967,12 +2961,12 @@
       </c>
       <c r="AL13" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Bilhete duplicado</t>
         </is>
       </c>
       <c r="AM13" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Bilhete Já Contabilizado</t>
         </is>
       </c>
       <c r="AN13" s="5" t="inlineStr">
@@ -2998,35 +2992,35 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>22389641</v>
+        <v>22444419</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>23242386</v>
+        <v>23287293</v>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>ACC03</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45821.44375</v>
+        <v>45831.72347222222</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>45821.44791666666</v>
+        <v>45831.72582175926</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>LA9577828ABPY</t>
+          <t>LA9571170HTTN</t>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
@@ -3036,7 +3030,7 @@
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t>GONÇALVES ZUPPO/THIAGO</t>
+          <t>Alves Magalhães Filho/Jorge</t>
         </is>
       </c>
       <c r="K14" s="5" t="inlineStr">
@@ -3050,7 +3044,7 @@
         </is>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45821.44375</v>
+        <v>45831.72222222222</v>
       </c>
       <c r="N14" s="5" t="inlineStr">
         <is>
@@ -3094,7 +3088,7 @@
       </c>
       <c r="V14" s="5" t="inlineStr">
         <is>
-          <t>The School Of Life Escola De Filosofia Ltda</t>
+          <t>Lmaismaocubo Projetos e Consultoria Ltda</t>
         </is>
       </c>
       <c r="W14" s="5" t="inlineStr">
@@ -3108,7 +3102,7 @@
         </is>
       </c>
       <c r="Y14" s="5" t="n">
-        <v>2236871819</v>
+        <v>2238234777</v>
       </c>
       <c r="Z14" s="5" t="inlineStr">
         <is>
@@ -3121,10 +3115,10 @@
         </is>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>0</v>
+        <v>419.02</v>
       </c>
       <c r="AC14" s="5" t="n">
-        <v>0</v>
+        <v>100.18</v>
       </c>
       <c r="AD14" s="5" t="n">
         <v>0</v>
@@ -3139,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI14" s="5" t="inlineStr">
         <is>
@@ -3189,35 +3183,35 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>22389735</v>
+        <v>22442491</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>23242502</v>
+        <v>23285512</v>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45821.45625</v>
+        <v>45831.50450231481</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>45821.46527777778</v>
+        <v>45831.51125</v>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t>CPQDNZ</t>
+          <t>OG584V</t>
         </is>
       </c>
       <c r="I15" s="5" t="inlineStr">
@@ -3227,7 +3221,7 @@
       </c>
       <c r="J15" s="5" t="inlineStr">
         <is>
-          <t>MARCOS BASTOS ARAUJO</t>
+          <t>DAVI ARAUJO</t>
         </is>
       </c>
       <c r="K15" s="5" t="inlineStr">
@@ -3241,7 +3235,7 @@
         </is>
       </c>
       <c r="M15" s="6" t="n">
-        <v>45820.45625</v>
+        <v>45828.50416666667</v>
       </c>
       <c r="N15" s="5" t="inlineStr">
         <is>
@@ -3280,12 +3274,12 @@
       </c>
       <c r="U15" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Grupo Kontrip</t>
         </is>
       </c>
       <c r="V15" s="5" t="inlineStr">
         <is>
-          <t>Baxtech</t>
+          <t>Porto de Galinhas Convention e Visitors Bureau</t>
         </is>
       </c>
       <c r="W15" s="5" t="inlineStr">
@@ -3295,11 +3289,11 @@
       </c>
       <c r="X15" s="5" t="inlineStr">
         <is>
-          <t>Air Canada</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y15" s="5" t="n">
-        <v>2971307924</v>
+        <v>3023285511</v>
       </c>
       <c r="Z15" s="5" t="inlineStr">
         <is>
@@ -3312,10 +3306,10 @@
         </is>
       </c>
       <c r="AB15" s="5" t="n">
-        <v>7593.96</v>
+        <v>612.54</v>
       </c>
       <c r="AC15" s="5" t="n">
-        <v>364.95</v>
+        <v>119.51</v>
       </c>
       <c r="AD15" s="5" t="n">
         <v>0</v>
@@ -3330,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="AH15" s="5" t="n">
-        <v>0</v>
+        <v>110.26</v>
       </c>
       <c r="AI15" s="5" t="inlineStr">
         <is>
@@ -3374,7 +3368,198 @@
       </c>
       <c r="AQ15" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Operações - KONTRIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>22442491</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>23285535</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>ACC02</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>45831.50450231481</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>45831.51125</v>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>OG584V</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>DANIEL ARAUJO</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>45828.50416666667</v>
+      </c>
+      <c r="N16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q16" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R16" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T16" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V16" s="5" t="inlineStr">
+        <is>
+          <t>Porto de Galinhas Convention e Visitors Bureau</t>
+        </is>
+      </c>
+      <c r="W16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X16" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y16" s="5" t="n">
+        <v>3023285536</v>
+      </c>
+      <c r="Z16" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB16" s="5" t="n">
+        <v>612.54</v>
+      </c>
+      <c r="AC16" s="5" t="n">
+        <v>119.51</v>
+      </c>
+      <c r="AD16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ16" s="5" t="inlineStr">
+        <is>
+          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+        </is>
+      </c>
+      <c r="AK16" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL16" s="5" t="inlineStr">
+        <is>
+          <t>Falta de informação Gerencial</t>
+        </is>
+      </c>
+      <c r="AM16" s="5" t="inlineStr">
+        <is>
+          <t>Rateio de centro de custo/projeto</t>
+        </is>
+      </c>
+      <c r="AN16" s="5" t="inlineStr">
+        <is>
+          <t>Dados Gerenciais</t>
+        </is>
+      </c>
+      <c r="AO16" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP16" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ16" s="5" t="inlineStr">
+        <is>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>

--- a/Integration Quality/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
+++ b/Integration Quality/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ16"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,59 +700,59 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>22443138</v>
+        <v>22461262</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>23286164</v>
+        <v>23300940</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45831.58079861111</v>
+        <v>45834.70292824074</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45831.58729166666</v>
+        <v>45834.70704861111</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>QZUVKB</t>
+          <t>GMPQBQ</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>ALDA MARINA DE CAMPOS MELO</t>
+          <t>DA SILVA CASTRO/VICTOR</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L2" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M2" s="6" t="n">
-        <v>45828.58055555556</v>
+        <v>45834.69861111111</v>
       </c>
       <c r="N2" s="5" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Vpr Consultoria, Eventos, Servicos e Treinamentos Ltda</t>
+          <t>Pessoa e Pessoa Advogados Associados</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="Y2" s="5" t="n">
-        <v>2139988704</v>
+        <v>2140277329</v>
       </c>
       <c r="Z2" s="5" t="inlineStr">
         <is>
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>2015.77</v>
+        <v>1191.9</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>59.95</v>
+        <v>104.89</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>0</v>
@@ -841,16 +841,16 @@
         <v>0</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>120.95</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="AI2" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ2" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
+          <t>Centro de custo não preenchido! (ACC01)</t>
         </is>
       </c>
       <c r="AK2" s="5" t="inlineStr">
@@ -860,17 +860,17 @@
       </c>
       <c r="AL2" s="5" t="inlineStr">
         <is>
+          <t>Centro de custo</t>
+        </is>
+      </c>
+      <c r="AM2" s="5" t="inlineStr">
+        <is>
           <t>Falta de informação Gerencial</t>
         </is>
       </c>
-      <c r="AM2" s="5" t="inlineStr">
-        <is>
-          <t>Rateio de centro de custo/projeto</t>
-        </is>
-      </c>
       <c r="AN2" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO2" s="5" t="inlineStr">
@@ -891,10 +891,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>22443418</v>
+        <v>22459992</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>23286368</v>
+        <v>23299710</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
@@ -902,24 +902,24 @@
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>45831.61105324074</v>
+        <v>45834.52964120371</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>45831.61527777778</v>
+        <v>45834.73059027778</v>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>HRTRXM</t>
+          <t>LA9571600AUXS</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>SILVIO CRESPO</t>
+          <t>VALERIA GOMES LEAL</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="M3" s="6" t="n">
-        <v>45828.61041666667</v>
+        <v>45833.52916666667</v>
       </c>
       <c r="N3" s="5" t="inlineStr">
         <is>
@@ -962,12 +962,12 @@
       </c>
       <c r="Q3" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R3" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S3" s="5" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="V3" s="5" t="inlineStr">
         <is>
-          <t>Grana Capital Tecnologia Em Investimentos Ltda</t>
+          <t>Kontrip - Vendas Cartao de Credito</t>
         </is>
       </c>
       <c r="W3" s="5" t="inlineStr">
@@ -997,11 +997,11 @@
       </c>
       <c r="X3" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y3" s="5" t="n">
-        <v>2139949448</v>
+        <v>2238480836</v>
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>198.7</v>
+        <v>1785.44</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>34.11</v>
+        <v>78.38</v>
       </c>
       <c r="AD3" s="5" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>11.92</v>
+        <v>30.53</v>
       </c>
       <c r="AI3" s="5" t="inlineStr">
         <is>
@@ -1082,59 +1082,59 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>22443698</v>
+        <v>22460028</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>23286625</v>
+        <v>23299735</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45831.63736111111</v>
+        <v>45834.53344907407</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>45831.63805555556</v>
+        <v>45834.73065972222</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>UGDCFT</t>
+          <t>LA9577150CBWZ</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>FERNANDES/DANIEL</t>
+          <t>FRANCISCO CANINDE FERNANDES JUNIOR</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M4" s="6" t="n">
-        <v>45831.59166666667</v>
+        <v>45833.53333333333</v>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S4" s="5" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="U4" s="5" t="inlineStr">
         <is>
-          <t>Independente</t>
+          <t>Grupo Kontrip</t>
         </is>
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>Tap Air Portugal</t>
+          <t>Nossa Engenharia e Servicos</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y4" s="5" t="n">
-        <v>2140079741</v>
+        <v>2238555012</v>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>928.1</v>
+        <v>1199.69</v>
       </c>
       <c r="AC4" s="5" t="n">
-        <v>50.92</v>
+        <v>102.22</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="n">
-        <v>55.69</v>
+        <v>20.51</v>
       </c>
       <c r="AI4" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ4" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo não preenchido! (ACC01)</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK4" s="5" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="AL4" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM4" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN4" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO4" s="5" t="inlineStr">
@@ -1273,59 +1273,59 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>22443998</v>
+        <v>22459944</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>23286896</v>
+        <v>23299686</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>45831.67209490741</v>
+        <v>45834.52306712963</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>45831.67363425926</v>
+        <v>45834.73011574074</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>LA9574694UPEM</t>
+          <t>LA9572362DNZW</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>rui pinhal/mario</t>
+          <t>CAIO FABIO ALVES CASTRO</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L5" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M5" s="6" t="n">
-        <v>45831.59652777778</v>
+        <v>45833.52291666667</v>
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
@@ -1344,12 +1344,12 @@
       </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S5" s="5" t="inlineStr">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="U5" s="5" t="inlineStr">
         <is>
-          <t>Independente</t>
+          <t>Grupo Kontrip</t>
         </is>
       </c>
       <c r="V5" s="5" t="inlineStr">
         <is>
-          <t>Tap Air Portugal</t>
+          <t>Marques e Bezerra Ltda</t>
         </is>
       </c>
       <c r="W5" s="5" t="inlineStr">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="Y5" s="5" t="n">
-        <v>2238221759</v>
+        <v>2238457649</v>
       </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>919.11</v>
+        <v>1608.04</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>82.36</v>
+        <v>95.34</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>13.79</v>
+        <v>27.5</v>
       </c>
       <c r="AI5" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ5" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo não preenchido! (ACC01)</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK5" s="5" t="inlineStr">
@@ -1433,17 +1433,17 @@
       </c>
       <c r="AL5" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM5" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN5" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO5" s="5" t="inlineStr">
@@ -1464,10 +1464,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>22442897</v>
+        <v>22459872</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>23285884</v>
+        <v>23299568</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
@@ -1475,48 +1475,48 @@
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45831.55122685185</v>
+        <v>45834.51140046296</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45831.55306712963</v>
+        <v>45834.72637731482</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>FDUEIN</t>
+          <t>SF3F6L</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>Ribeiro Guth/Alberto</t>
+          <t>CAMILA DO NASCIMENTO CAMPOS KAERCHER</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L6" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45831.54930555556</v>
+        <v>45833.51111111111</v>
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="V6" s="5" t="inlineStr">
         <is>
-          <t>Matterhorn Infraestrutura Gestao de Investimentos Ltda</t>
+          <t>Kaercher Treinamentos</t>
         </is>
       </c>
       <c r="W6" s="5" t="inlineStr">
@@ -1570,11 +1570,11 @@
       </c>
       <c r="X6" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y6" s="5" t="n">
-        <v>2238191518</v>
+        <v>3023299567</v>
       </c>
       <c r="Z6" s="5" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>2498.21</v>
+        <v>1751.51</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>289.52</v>
+        <v>74.59</v>
       </c>
       <c r="AD6" s="5" t="n">
         <v>0</v>
@@ -1605,16 +1605,16 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>40</v>
+        <v>472.91</v>
       </c>
       <c r="AI6" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ6" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo não preenchido! (ACC01) Solicitante não preenchido! (ACC01)</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK6" s="5" t="inlineStr">
@@ -1624,17 +1624,17 @@
       </c>
       <c r="AL6" s="5" t="inlineStr">
         <is>
-          <t>Mais de um campo não preenchido</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM6" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN6" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO6" s="5" t="inlineStr">
@@ -1655,59 +1655,59 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>22443137</v>
+        <v>22459872</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>23286108</v>
+        <v>23299589</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45831.58091435185</v>
+        <v>45834.51140046296</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45831.58263888889</v>
+        <v>45834.72637731482</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>LA9577948KSFD</t>
+          <t>SF3F6L</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>ARAUJO/BENITO</t>
+          <t>MARIANA CERQUEIRA DE ALMEIDA</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L7" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45831.43680555555</v>
+        <v>45833.51111111111</v>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
+          <t>Kaercher Treinamentos</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
@@ -1761,11 +1761,11 @@
       </c>
       <c r="X7" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y7" s="5" t="n">
-        <v>2238198211</v>
+        <v>3023299591</v>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>1161.19</v>
+        <v>1751.51</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>48.16</v>
+        <v>74.59</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>0</v>
@@ -1796,16 +1796,16 @@
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>487.71</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ7" s="5" t="inlineStr">
         <is>
-          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK7" s="5" t="inlineStr">
@@ -1815,17 +1815,17 @@
       </c>
       <c r="AL7" s="5" t="inlineStr">
         <is>
-          <t>Bilhete duplicado</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM7" s="5" t="inlineStr">
         <is>
-          <t>Bilhete Já Contabilizado</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN7" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO7" s="5" t="inlineStr">
@@ -1840,65 +1840,65 @@
       </c>
       <c r="AQ7" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>22443137</v>
+        <v>22459872</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>23286109</v>
+        <v>23299595</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC03</t>
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>45831.58091435185</v>
+        <v>45834.51140046296</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>45831.58263888889</v>
+        <v>45834.72637731482</v>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>LA9577948KSFD</t>
+          <t>SF3F6L</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>SILVA/SUELLEN</t>
+          <t>LUCAS GONCALVES GOMES SILVA</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L8" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M8" s="6" t="n">
-        <v>45831.43680555555</v>
+        <v>45833.51111111111</v>
       </c>
       <c r="N8" s="5" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
+          <t>Kaercher Treinamentos</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
@@ -1952,11 +1952,11 @@
       </c>
       <c r="X8" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y8" s="5" t="n">
-        <v>2238198212</v>
+        <v>3023299596</v>
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>1161.22</v>
+        <v>1751.51</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>48.16</v>
+        <v>74.59</v>
       </c>
       <c r="AD8" s="5" t="n">
         <v>0</v>
@@ -1991,12 +1991,12 @@
       </c>
       <c r="AI8" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ8" s="5" t="inlineStr">
         <is>
-          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK8" s="5" t="inlineStr">
@@ -2006,17 +2006,17 @@
       </c>
       <c r="AL8" s="5" t="inlineStr">
         <is>
-          <t>Bilhete duplicado</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM8" s="5" t="inlineStr">
         <is>
-          <t>Bilhete Já Contabilizado</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN8" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO8" s="5" t="inlineStr">
@@ -2031,41 +2031,41 @@
       </c>
       <c r="AQ8" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>22443137</v>
+        <v>22459937</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>23286110</v>
+        <v>23299646</v>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>ACC03</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D9" s="6" t="n">
-        <v>45831.58091435185</v>
+        <v>45834.52216435185</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>45831.58263888889</v>
+        <v>45834.52375</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>LA9577948KSFD</t>
+          <t>XNRYUD</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>Marques/Jonnata</t>
+          <t>DE ARRUDA QUINTEIRO/BRUNNA</t>
         </is>
       </c>
       <c r="K9" s="5" t="inlineStr">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="M9" s="6" t="n">
-        <v>45831.43680555555</v>
+        <v>45834.52152777778</v>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="V9" s="5" t="inlineStr">
         <is>
-          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
+          <t>Kontrip - Vendas Cartao de Credito</t>
         </is>
       </c>
       <c r="W9" s="5" t="inlineStr">
@@ -2143,11 +2143,11 @@
       </c>
       <c r="X9" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y9" s="5" t="n">
-        <v>2238198213</v>
+        <v>496701246</v>
       </c>
       <c r="Z9" s="5" t="inlineStr">
         <is>
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="AB9" s="5" t="n">
-        <v>1161.22</v>
+        <v>2089.19</v>
       </c>
       <c r="AC9" s="5" t="n">
-        <v>48.16</v>
+        <v>450</v>
       </c>
       <c r="AD9" s="5" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI9" s="5" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="AJ9" s="5" t="inlineStr">
         <is>
-          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK9" s="5" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="AL9" s="5" t="inlineStr">
         <is>
-          <t>Bilhete duplicado</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM9" s="5" t="inlineStr">
         <is>
-          <t>Bilhete Já Contabilizado</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN9" s="5" t="inlineStr">
@@ -2222,41 +2222,41 @@
       </c>
       <c r="AQ9" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>22443137</v>
+        <v>22461196</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>23286111</v>
+        <v>23300868</v>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>ACC04</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45831.58091435185</v>
+        <v>45834.69434027778</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45831.58263888889</v>
+        <v>45834.69774305556</v>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>LA9577948KSFD</t>
+          <t>NJZS5M</t>
         </is>
       </c>
       <c r="I10" s="5" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="J10" s="5" t="inlineStr">
         <is>
-          <t>JANUARIO/BRUNO</t>
+          <t>Varalda/Adriana</t>
         </is>
       </c>
       <c r="K10" s="5" t="inlineStr">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45831.43680555555</v>
+        <v>45834.67777777778</v>
       </c>
       <c r="N10" s="5" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="V10" s="5" t="inlineStr">
         <is>
-          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
+          <t>Kontrip - Vendas Cartao de Credito</t>
         </is>
       </c>
       <c r="W10" s="5" t="inlineStr">
@@ -2334,11 +2334,11 @@
       </c>
       <c r="X10" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y10" s="5" t="n">
-        <v>2238198214</v>
+        <v>119583055</v>
       </c>
       <c r="Z10" s="5" t="inlineStr">
         <is>
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="AB10" s="5" t="n">
-        <v>1161.22</v>
+        <v>1790</v>
       </c>
       <c r="AC10" s="5" t="n">
-        <v>48.16</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="5" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="AH10" s="5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI10" s="5" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="AJ10" s="5" t="inlineStr">
         <is>
-          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK10" s="5" t="inlineStr">
@@ -2388,12 +2388,12 @@
       </c>
       <c r="AL10" s="5" t="inlineStr">
         <is>
-          <t>Bilhete duplicado</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM10" s="5" t="inlineStr">
         <is>
-          <t>Bilhete Já Contabilizado</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN10" s="5" t="inlineStr">
@@ -2413,65 +2413,65 @@
       </c>
       <c r="AQ10" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>22443137</v>
+        <v>22459821</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>23286112</v>
+        <v>23299526</v>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>ACC05</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45831.58091435185</v>
+        <v>45834.50327546296</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45831.58263888889</v>
+        <v>45834.70680555556</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>LA9577948KSFD</t>
+          <t>RK8PPM</t>
         </is>
       </c>
       <c r="I11" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>ALBINO/GUSTAVO</t>
+          <t>THIAGO DE LIMA FAUSTINO</t>
         </is>
       </c>
       <c r="K11" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L11" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M11" s="6" t="n">
-        <v>45831.43680555555</v>
+        <v>45833.50277777778</v>
       </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="V11" s="5" t="inlineStr">
         <is>
-          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
+          <t>Kontrip - Vendas Cartao de Credito</t>
         </is>
       </c>
       <c r="W11" s="5" t="inlineStr">
@@ -2525,11 +2525,11 @@
       </c>
       <c r="X11" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y11" s="5" t="n">
-        <v>2238198215</v>
+        <v>3023299525</v>
       </c>
       <c r="Z11" s="5" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="AB11" s="5" t="n">
-        <v>1161.22</v>
+        <v>1058.92</v>
       </c>
       <c r="AC11" s="5" t="n">
-        <v>48.16</v>
+        <v>34.11</v>
       </c>
       <c r="AD11" s="5" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="AH11" s="5" t="n">
-        <v>0</v>
+        <v>95.3</v>
       </c>
       <c r="AI11" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ11" s="5" t="inlineStr">
         <is>
-          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK11" s="5" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="AL11" s="5" t="inlineStr">
         <is>
-          <t>Bilhete duplicado</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM11" s="5" t="inlineStr">
         <is>
-          <t>Bilhete Já Contabilizado</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN11" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO11" s="5" t="inlineStr">
@@ -2604,65 +2604,65 @@
       </c>
       <c r="AQ11" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>22443137</v>
+        <v>22460105</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>23286113</v>
+        <v>23299810</v>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>ACC06</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D12" s="6" t="n">
-        <v>45831.58091435185</v>
+        <v>45834.54712962963</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>45831.58263888889</v>
+        <v>45834.72902777778</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>LA9577948KSFD</t>
+          <t>JHS6PS</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>CAMARGO/JULIANA</t>
+          <t>CAROLINE CELLI</t>
         </is>
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L12" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M12" s="6" t="n">
-        <v>45831.43680555555</v>
+        <v>45833.54652777778</v>
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="V12" s="5" t="inlineStr">
         <is>
-          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
+          <t>Mauro Goncalve Antonelli</t>
         </is>
       </c>
       <c r="W12" s="5" t="inlineStr">
@@ -2716,11 +2716,11 @@
       </c>
       <c r="X12" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y12" s="5" t="n">
-        <v>2238198216</v>
+        <v>3023299809</v>
       </c>
       <c r="Z12" s="5" t="inlineStr">
         <is>
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="AB12" s="5" t="n">
-        <v>1161.22</v>
+        <v>1574.88</v>
       </c>
       <c r="AC12" s="5" t="n">
-        <v>48.16</v>
+        <v>46.72</v>
       </c>
       <c r="AD12" s="5" t="n">
         <v>0</v>
@@ -2751,16 +2751,16 @@
         <v>0</v>
       </c>
       <c r="AH12" s="5" t="n">
-        <v>0</v>
+        <v>141.74</v>
       </c>
       <c r="AI12" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ12" s="5" t="inlineStr">
         <is>
-          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK12" s="5" t="inlineStr">
@@ -2770,17 +2770,17 @@
       </c>
       <c r="AL12" s="5" t="inlineStr">
         <is>
-          <t>Bilhete duplicado</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM12" s="5" t="inlineStr">
         <is>
-          <t>Bilhete Já Contabilizado</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN12" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO12" s="5" t="inlineStr">
@@ -2795,65 +2795,65 @@
       </c>
       <c r="AQ12" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>22443137</v>
+        <v>22459766</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>23286114</v>
+        <v>23299457</v>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>ACC07</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D13" s="6" t="n">
-        <v>45831.58091435185</v>
+        <v>45834.49883101852</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>45831.58263888889</v>
+        <v>45834.70751157407</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>LA9577948KSFD</t>
+          <t>GRS1HB</t>
         </is>
       </c>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t>RACHINSKI/RAFAEL</t>
+          <t>SAMUEL SILVA</t>
         </is>
       </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L13" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M13" s="6" t="n">
-        <v>45831.43680555555</v>
+        <v>45833.49861111111</v>
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="V13" s="5" t="inlineStr">
         <is>
-          <t>Associacao Colo de Deus e Santissima Virgem (a.c.d.s.v)</t>
+          <t>Galzer Importacao e Exportacao Ltda</t>
         </is>
       </c>
       <c r="W13" s="5" t="inlineStr">
@@ -2907,11 +2907,11 @@
       </c>
       <c r="X13" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y13" s="5" t="n">
-        <v>2238198216</v>
+        <v>3023299456</v>
       </c>
       <c r="Z13" s="5" t="inlineStr">
         <is>
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="AB13" s="5" t="n">
-        <v>1161.22</v>
+        <v>227.84</v>
       </c>
       <c r="AC13" s="5" t="n">
-        <v>48.16</v>
+        <v>65</v>
       </c>
       <c r="AD13" s="5" t="n">
         <v>0</v>
@@ -2942,16 +2942,16 @@
         <v>0</v>
       </c>
       <c r="AH13" s="5" t="n">
-        <v>0</v>
+        <v>20.51</v>
       </c>
       <c r="AI13" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ13" s="5" t="inlineStr">
         <is>
-          <t>Verificação de bilhetes: Bilhete 2238198216 já sendo utilizado para este fornecedor.</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK13" s="5" t="inlineStr">
@@ -2961,17 +2961,17 @@
       </c>
       <c r="AL13" s="5" t="inlineStr">
         <is>
-          <t>Bilhete duplicado</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM13" s="5" t="inlineStr">
         <is>
-          <t>Bilhete Já Contabilizado</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN13" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO13" s="5" t="inlineStr">
@@ -2986,65 +2986,65 @@
       </c>
       <c r="AQ13" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>22444419</v>
+        <v>22459866</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>23287293</v>
+        <v>23299554</v>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45831.72347222222</v>
+        <v>45834.50763888889</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>45831.72582175926</v>
+        <v>45834.72603009259</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>LA9571170HTTN</t>
+          <t>GLBGMG</t>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t>Alves Magalhães Filho/Jorge</t>
+          <t>CHARLLES RODRIGUES</t>
         </is>
       </c>
       <c r="K14" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L14" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45831.72222222222</v>
+        <v>45833.50763888889</v>
       </c>
       <c r="N14" s="5" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="V14" s="5" t="inlineStr">
         <is>
-          <t>Lmaismaocubo Projetos e Consultoria Ltda</t>
+          <t>Galzer Importacao e Exportacao Ltda</t>
         </is>
       </c>
       <c r="W14" s="5" t="inlineStr">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="X14" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y14" s="5" t="n">
-        <v>2238234777</v>
+        <v>3023299553</v>
       </c>
       <c r="Z14" s="5" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>419.02</v>
+        <v>232.34</v>
       </c>
       <c r="AC14" s="5" t="n">
-        <v>100.18</v>
+        <v>65</v>
       </c>
       <c r="AD14" s="5" t="n">
         <v>0</v>
@@ -3133,16 +3133,16 @@
         <v>0</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>40</v>
+        <v>20.91</v>
       </c>
       <c r="AI14" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ14" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK14" s="5" t="inlineStr">
@@ -3152,17 +3152,17 @@
       </c>
       <c r="AL14" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM14" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN14" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO14" s="5" t="inlineStr">
@@ -3176,388 +3176,6 @@
         </is>
       </c>
       <c r="AQ14" s="5" t="inlineStr">
-        <is>
-          <t>Conciliação aérea</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="n">
-        <v>22442491</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>23285512</v>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>ACC01</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>45831.50450231481</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>45831.51125</v>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="H15" s="5" t="inlineStr">
-        <is>
-          <t>OG584V</t>
-        </is>
-      </c>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>MANUAL</t>
-        </is>
-      </c>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <t>DAVI ARAUJO</t>
-        </is>
-      </c>
-      <c r="K15" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="L15" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="M15" s="6" t="n">
-        <v>45828.50416666667</v>
-      </c>
-      <c r="N15" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O15" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>OFF LINE</t>
-        </is>
-      </c>
-      <c r="Q15" s="5" t="inlineStr">
-        <is>
-          <t>Invoice</t>
-        </is>
-      </c>
-      <c r="R15" s="5" t="inlineStr">
-        <is>
-          <t>Cartão convênio</t>
-        </is>
-      </c>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <t>Aéreo</t>
-        </is>
-      </c>
-      <c r="T15" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U15" s="5" t="inlineStr">
-        <is>
-          <t>Grupo Kontrip</t>
-        </is>
-      </c>
-      <c r="V15" s="5" t="inlineStr">
-        <is>
-          <t>Porto de Galinhas Convention e Visitors Bureau</t>
-        </is>
-      </c>
-      <c r="W15" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X15" s="5" t="inlineStr">
-        <is>
-          <t>Azul Linhas Aereas</t>
-        </is>
-      </c>
-      <c r="Y15" s="5" t="n">
-        <v>3023285511</v>
-      </c>
-      <c r="Z15" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AA15" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB15" s="5" t="n">
-        <v>612.54</v>
-      </c>
-      <c r="AC15" s="5" t="n">
-        <v>119.51</v>
-      </c>
-      <c r="AD15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="5" t="n">
-        <v>110.26</v>
-      </c>
-      <c r="AI15" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ15" s="5" t="inlineStr">
-        <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
-        </is>
-      </c>
-      <c r="AK15" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AL15" s="5" t="inlineStr">
-        <is>
-          <t>Falta de informação Gerencial</t>
-        </is>
-      </c>
-      <c r="AM15" s="5" t="inlineStr">
-        <is>
-          <t>Rateio de centro de custo/projeto</t>
-        </is>
-      </c>
-      <c r="AN15" s="5" t="inlineStr">
-        <is>
-          <t>Dados Gerenciais</t>
-        </is>
-      </c>
-      <c r="AO15" s="5" t="inlineStr">
-        <is>
-          <t>Qualidade dos dados</t>
-        </is>
-      </c>
-      <c r="AP15" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP VIAGENS</t>
-        </is>
-      </c>
-      <c r="AQ15" s="5" t="inlineStr">
-        <is>
-          <t>Operações - KONTRIP</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="n">
-        <v>22442491</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>23285535</v>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>ACC02</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>45831.50450231481</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>45831.51125</v>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="H16" s="5" t="inlineStr">
-        <is>
-          <t>OG584V</t>
-        </is>
-      </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>MANUAL</t>
-        </is>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>DANIEL ARAUJO</t>
-        </is>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>45828.50416666667</v>
-      </c>
-      <c r="N16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>OFF LINE</t>
-        </is>
-      </c>
-      <c r="Q16" s="5" t="inlineStr">
-        <is>
-          <t>Invoice</t>
-        </is>
-      </c>
-      <c r="R16" s="5" t="inlineStr">
-        <is>
-          <t>Cartão convênio</t>
-        </is>
-      </c>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>Aéreo</t>
-        </is>
-      </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>Grupo Kontrip</t>
-        </is>
-      </c>
-      <c r="V16" s="5" t="inlineStr">
-        <is>
-          <t>Porto de Galinhas Convention e Visitors Bureau</t>
-        </is>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X16" s="5" t="inlineStr">
-        <is>
-          <t>Azul Linhas Aereas</t>
-        </is>
-      </c>
-      <c r="Y16" s="5" t="n">
-        <v>3023285536</v>
-      </c>
-      <c r="Z16" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AA16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB16" s="5" t="n">
-        <v>612.54</v>
-      </c>
-      <c r="AC16" s="5" t="n">
-        <v>119.51</v>
-      </c>
-      <c r="AD16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ16" s="5" t="inlineStr">
-        <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
-        </is>
-      </c>
-      <c r="AK16" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AL16" s="5" t="inlineStr">
-        <is>
-          <t>Falta de informação Gerencial</t>
-        </is>
-      </c>
-      <c r="AM16" s="5" t="inlineStr">
-        <is>
-          <t>Rateio de centro de custo/projeto</t>
-        </is>
-      </c>
-      <c r="AN16" s="5" t="inlineStr">
-        <is>
-          <t>Dados Gerenciais</t>
-        </is>
-      </c>
-      <c r="AO16" s="5" t="inlineStr">
-        <is>
-          <t>Qualidade dos dados</t>
-        </is>
-      </c>
-      <c r="AP16" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP VIAGENS</t>
-        </is>
-      </c>
-      <c r="AQ16" s="5" t="inlineStr">
         <is>
           <t>Operações - KONTRIP</t>
         </is>

--- a/Integration Quality/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
+++ b/Integration Quality/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,10 +700,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>22461262</v>
+        <v>22504723</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>23300940</v>
+        <v>23337436</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
@@ -711,24 +711,24 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45834.70292824074</v>
+        <v>45841.60965277778</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45834.70704861111</v>
+        <v>45841.61076388889</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>GMPQBQ</t>
+          <t>FYJJJU</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>DA SILVA CASTRO/VICTOR</t>
+          <t>LUIS CASTRO SCATOLINI/TIAGO</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="M2" s="6" t="n">
-        <v>45834.69861111111</v>
+        <v>45841.60902777778</v>
       </c>
       <c r="N2" s="5" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Pessoa e Pessoa Advogados Associados</t>
+          <t>Instituto Atlantico</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="Y2" s="5" t="n">
-        <v>2140277329</v>
+        <v>2140681925</v>
       </c>
       <c r="Z2" s="5" t="inlineStr">
         <is>
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>1191.9</v>
+        <v>386.79</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>104.89</v>
+        <v>400</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>71.51000000000001</v>
+        <v>40</v>
       </c>
       <c r="AI2" s="5" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
       </c>
       <c r="AJ2" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo não preenchido! (ACC01)</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK2" s="5" t="inlineStr">
@@ -860,17 +860,17 @@
       </c>
       <c r="AL2" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM2" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN2" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO2" s="5" t="inlineStr">
@@ -891,59 +891,59 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>22459992</v>
+        <v>22504763</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>23299710</v>
+        <v>23337473</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>45834.52964120371</v>
+        <v>45841.61942129629</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>45834.73059027778</v>
+        <v>45841.62157407407</v>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>LA9571600AUXS</t>
+          <t>FXXJWY</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>VALERIA GOMES LEAL</t>
+          <t>LUIS CASTRO SCATOLINI/TIAGO</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L3" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M3" s="6" t="n">
-        <v>45833.52916666667</v>
+        <v>45841.61875</v>
       </c>
       <c r="N3" s="5" t="inlineStr">
         <is>
@@ -962,12 +962,12 @@
       </c>
       <c r="Q3" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R3" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S3" s="5" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="V3" s="5" t="inlineStr">
         <is>
-          <t>Kontrip - Vendas Cartao de Credito</t>
+          <t>Instituto Atlantico</t>
         </is>
       </c>
       <c r="W3" s="5" t="inlineStr">
@@ -997,11 +997,11 @@
       </c>
       <c r="X3" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y3" s="5" t="n">
-        <v>2238480836</v>
+        <v>2140683530</v>
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>1785.44</v>
+        <v>595.79</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>78.38</v>
+        <v>40</v>
       </c>
       <c r="AD3" s="5" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>30.53</v>
+        <v>400</v>
       </c>
       <c r="AI3" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK3" s="5" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="AL3" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM3" s="5" t="inlineStr">
         <is>
-          <t>Rateio de centro de custo/projeto</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN3" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO3" s="5" t="inlineStr">
@@ -1082,59 +1082,59 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>22460028</v>
+        <v>22505709</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>23299735</v>
+        <v>23338405</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45834.53344907407</v>
+        <v>45841.73232638889</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>45834.73065972222</v>
+        <v>45841.73412037037</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>LA9577150CBWZ</t>
+          <t>LA9575803BKIN</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>FRANCISCO CANINDE FERNANDES JUNIOR</t>
+          <t>SANTANA PEREIRA/ANDERSON</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M4" s="6" t="n">
-        <v>45833.53333333333</v>
+        <v>45841.725</v>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
@@ -1173,12 +1173,12 @@
       </c>
       <c r="U4" s="5" t="inlineStr">
         <is>
-          <t>Grupo Kontrip</t>
+          <t>Grupo Sacs</t>
         </is>
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>Nossa Engenharia e Servicos</t>
+          <t>Sacs Construcao e Montagem Ltda</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="Y4" s="5" t="n">
-        <v>2238555012</v>
+        <v>2239671708</v>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>1199.69</v>
+        <v>1660.33</v>
       </c>
       <c r="AC4" s="5" t="n">
-        <v>102.22</v>
+        <v>44.27</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="n">
-        <v>20.51</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="AI4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
+          <t>o. Valor Líquido: 1.606,45 Débitos: 36,64 Créditos: 1.704,60. Saldo: -61,51 Saldo percentual: 3,83</t>
         </is>
       </c>
       <c r="AK4" s="5" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="AL4" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Não identificado</t>
         </is>
       </c>
       <c r="AM4" s="5" t="inlineStr">
         <is>
-          <t>Rateio de centro de custo/projeto</t>
+          <t>Análise Benner</t>
         </is>
       </c>
       <c r="AN4" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO4" s="5" t="inlineStr">
@@ -1273,59 +1273,59 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>22459944</v>
+        <v>22505709</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>23299686</v>
+        <v>23338406</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>45834.52306712963</v>
+        <v>45841.73232638889</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>45834.73011574074</v>
+        <v>45841.73412037037</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>LA9572362DNZW</t>
+          <t>LA9575803BKIN</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>CAIO FABIO ALVES CASTRO</t>
+          <t>DA CONCEIÇÃO SANTOS BARRETO/VALTER</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L5" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M5" s="6" t="n">
-        <v>45833.52291666667</v>
+        <v>45841.725</v>
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
@@ -1364,12 +1364,12 @@
       </c>
       <c r="U5" s="5" t="inlineStr">
         <is>
-          <t>Grupo Kontrip</t>
+          <t>Grupo Sacs</t>
         </is>
       </c>
       <c r="V5" s="5" t="inlineStr">
         <is>
-          <t>Marques e Bezerra Ltda</t>
+          <t>Sacs Construcao e Montagem Ltda</t>
         </is>
       </c>
       <c r="W5" s="5" t="inlineStr">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="Y5" s="5" t="n">
-        <v>2238457649</v>
+        <v>2239671709</v>
       </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>1608.04</v>
+        <v>1660.33</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>95.34</v>
+        <v>44.27</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
+          <t>o. Valor Líquido: 1.606,45 Débitos: 36,64 Créditos: 1.704,60. Saldo: -61,51 Saldo percentual: 3,83</t>
         </is>
       </c>
       <c r="AK5" s="5" t="inlineStr">
@@ -1433,17 +1433,17 @@
       </c>
       <c r="AL5" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Não identificado</t>
         </is>
       </c>
       <c r="AM5" s="5" t="inlineStr">
         <is>
-          <t>Rateio de centro de custo/projeto</t>
+          <t>Análise Benner</t>
         </is>
       </c>
       <c r="AN5" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO5" s="5" t="inlineStr">
@@ -1464,59 +1464,59 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>22459872</v>
+        <v>22505709</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>23299568</v>
+        <v>23338407</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC03</t>
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45834.51140046296</v>
+        <v>45841.73232638889</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45834.72637731482</v>
+        <v>45841.73412037037</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>SF3F6L</t>
+          <t>LA9575803BKIN</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>CAMILA DO NASCIMENTO CAMPOS KAERCHER</t>
+          <t>ALVES PIRES/FABIO</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L6" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45833.51111111111</v>
+        <v>45841.725</v>
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
@@ -1535,12 +1535,12 @@
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R6" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S6" s="5" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="U6" s="5" t="inlineStr">
         <is>
-          <t>Grupo Kontrip</t>
+          <t>Grupo Sacs</t>
         </is>
       </c>
       <c r="V6" s="5" t="inlineStr">
         <is>
-          <t>Kaercher Treinamentos</t>
+          <t>Sacs Construcao e Montagem Ltda</t>
         </is>
       </c>
       <c r="W6" s="5" t="inlineStr">
@@ -1570,11 +1570,11 @@
       </c>
       <c r="X6" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y6" s="5" t="n">
-        <v>3023299567</v>
+        <v>2239671710</v>
       </c>
       <c r="Z6" s="5" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>1751.51</v>
+        <v>1660.33</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>74.59</v>
+        <v>44.27</v>
       </c>
       <c r="AD6" s="5" t="n">
         <v>0</v>
@@ -1605,16 +1605,16 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>472.91</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
+          <t>o. Valor Líquido: 1.606,45 Débitos: 36,64 Créditos: 1.704,60. Saldo: -61,51 Saldo percentual: 3,83</t>
         </is>
       </c>
       <c r="AK6" s="5" t="inlineStr">
@@ -1624,17 +1624,17 @@
       </c>
       <c r="AL6" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Não identificado</t>
         </is>
       </c>
       <c r="AM6" s="5" t="inlineStr">
         <is>
-          <t>Rateio de centro de custo/projeto</t>
+          <t>Análise Benner</t>
         </is>
       </c>
       <c r="AN6" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO6" s="5" t="inlineStr">
@@ -1655,59 +1655,59 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>22459872</v>
+        <v>22507127</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>23299589</v>
+        <v>23339842</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45834.51140046296</v>
+        <v>45841.81936342592</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45834.72637731482</v>
+        <v>45841.82116898148</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>SF3F6L</t>
+          <t>OQE2WX</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>MARIANA CERQUEIRA DE ALMEIDA</t>
+          <t>de Sousa Teixeira/Janai</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L7" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45833.51111111111</v>
+        <v>45841.81805555556</v>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>Kaercher Treinamentos</t>
+          <t>Atakarejo Distribuidor de Alimentos e Bebidas Eireli</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="Y7" s="5" t="n">
-        <v>3023299591</v>
+        <v>575077156</v>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>1751.51</v>
+        <v>404.5</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>74.59</v>
+        <v>450</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>0</v>
@@ -1796,16 +1796,16 @@
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI7" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK7" s="5" t="inlineStr">
@@ -1815,17 +1815,17 @@
       </c>
       <c r="AL7" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM7" s="5" t="inlineStr">
         <is>
-          <t>Rateio de centro de custo/projeto</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN7" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO7" s="5" t="inlineStr">
@@ -1846,35 +1846,35 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>22459872</v>
+        <v>22505034</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>23299595</v>
+        <v>23337766</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>ACC03</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>45834.51140046296</v>
+        <v>45841.65449074074</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>45834.72637731482</v>
+        <v>45841.6600462963</v>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>SF3F6L</t>
+          <t>WLJNWZ</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>LUCAS GONCALVES GOMES SILVA</t>
+          <t>FERNANDO TAVARES DA SILVA</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="M8" s="6" t="n">
-        <v>45833.51111111111</v>
+        <v>45840.65416666667</v>
       </c>
       <c r="N8" s="5" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>Kaercher Treinamentos</t>
+          <t>Mauro Goncalve Antonelli</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="Y8" s="5" t="n">
-        <v>3023299596</v>
+        <v>3023337765</v>
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>1751.51</v>
+        <v>1017.8</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>74.59</v>
+        <v>107.34</v>
       </c>
       <c r="AD8" s="5" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="5" t="n">
-        <v>0</v>
+        <v>274.81</v>
       </c>
       <c r="AI8" s="5" t="inlineStr">
         <is>
@@ -2037,59 +2037,59 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>22459937</v>
+        <v>22505034</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>23299646</v>
+        <v>23337772</v>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D9" s="6" t="n">
-        <v>45834.52216435185</v>
+        <v>45841.65449074074</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>45834.52375</v>
+        <v>45841.6600462963</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>XNRYUD</t>
+          <t>WLJNWZ</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>DE ARRUDA QUINTEIRO/BRUNNA</t>
+          <t>RUDINEI GODOY</t>
         </is>
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M9" s="6" t="n">
-        <v>45834.52152777778</v>
+        <v>45840.65416666667</v>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="V9" s="5" t="inlineStr">
         <is>
-          <t>Kontrip - Vendas Cartao de Credito</t>
+          <t>Mauro Goncalve Antonelli</t>
         </is>
       </c>
       <c r="W9" s="5" t="inlineStr">
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="Y9" s="5" t="n">
-        <v>496701246</v>
+        <v>3023337775</v>
       </c>
       <c r="Z9" s="5" t="inlineStr">
         <is>
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="AB9" s="5" t="n">
-        <v>2089.19</v>
+        <v>1017.8</v>
       </c>
       <c r="AC9" s="5" t="n">
-        <v>450</v>
+        <v>107.34</v>
       </c>
       <c r="AD9" s="5" t="n">
         <v>0</v>
@@ -2178,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="AH9" s="5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ9" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK9" s="5" t="inlineStr">
@@ -2197,17 +2197,17 @@
       </c>
       <c r="AL9" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM9" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN9" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO9" s="5" t="inlineStr">
@@ -2228,59 +2228,59 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>22461196</v>
+        <v>22505034</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>23300868</v>
+        <v>23337777</v>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC03</t>
         </is>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45834.69434027778</v>
+        <v>45841.65449074074</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45834.69774305556</v>
+        <v>45841.6600462963</v>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>NJZS5M</t>
+          <t>WLJNWZ</t>
         </is>
       </c>
       <c r="I10" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J10" s="5" t="inlineStr">
         <is>
-          <t>Varalda/Adriana</t>
+          <t>JOAO AUGUSTO</t>
         </is>
       </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45834.67777777778</v>
+        <v>45840.65416666667</v>
       </c>
       <c r="N10" s="5" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="V10" s="5" t="inlineStr">
         <is>
-          <t>Kontrip - Vendas Cartao de Credito</t>
+          <t>Mauro Goncalve Antonelli</t>
         </is>
       </c>
       <c r="W10" s="5" t="inlineStr">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="Y10" s="5" t="n">
-        <v>119583055</v>
+        <v>3023337779</v>
       </c>
       <c r="Z10" s="5" t="inlineStr">
         <is>
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="AB10" s="5" t="n">
-        <v>1790</v>
+        <v>1017.8</v>
       </c>
       <c r="AC10" s="5" t="n">
-        <v>0</v>
+        <v>107.34</v>
       </c>
       <c r="AD10" s="5" t="n">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="AH10" s="5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ10" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK10" s="5" t="inlineStr">
@@ -2388,17 +2388,17 @@
       </c>
       <c r="AL10" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM10" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN10" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO10" s="5" t="inlineStr">
@@ -2419,59 +2419,59 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>22459821</v>
+        <v>22505228</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>23299526</v>
+        <v>23337948</v>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45834.50327546296</v>
+        <v>45841.67219907408</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45834.70680555556</v>
+        <v>45841.67327546296</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>RK8PPM</t>
+          <t>IMQ8ND</t>
         </is>
       </c>
       <c r="I11" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>THIAGO DE LIMA FAUSTINO</t>
+          <t>SILVA/GIVANILDO</t>
         </is>
       </c>
       <c r="K11" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L11" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M11" s="6" t="n">
-        <v>45833.50277777778</v>
+        <v>45841.67013888889</v>
       </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="V11" s="5" t="inlineStr">
         <is>
-          <t>Kontrip - Vendas Cartao de Credito</t>
+          <t>Topocart Topografia Engenharia e Aerolevantamentos</t>
         </is>
       </c>
       <c r="W11" s="5" t="inlineStr">
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="Y11" s="5" t="n">
-        <v>3023299525</v>
+        <v>423506088</v>
       </c>
       <c r="Z11" s="5" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="AB11" s="5" t="n">
-        <v>1058.92</v>
+        <v>226.64</v>
       </c>
       <c r="AC11" s="5" t="n">
-        <v>34.11</v>
+        <v>900</v>
       </c>
       <c r="AD11" s="5" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="AH11" s="5" t="n">
-        <v>95.3</v>
+        <v>40</v>
       </c>
       <c r="AI11" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK11" s="5" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="AL11" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM11" s="5" t="inlineStr">
         <is>
-          <t>Rateio de centro de custo/projeto</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN11" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO11" s="5" t="inlineStr">
@@ -2603,579 +2603,6 @@
         </is>
       </c>
       <c r="AQ11" s="5" t="inlineStr">
-        <is>
-          <t>Operações - KONTRIP</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="n">
-        <v>22460105</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>23299810</v>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>ACC</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>45834.54712962963</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>45834.72902777778</v>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>03 a 05 dias</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="inlineStr">
-        <is>
-          <t>03 a 05 dias</t>
-        </is>
-      </c>
-      <c r="H12" s="5" t="inlineStr">
-        <is>
-          <t>JHS6PS</t>
-        </is>
-      </c>
-      <c r="I12" s="5" t="inlineStr">
-        <is>
-          <t>MANUAL</t>
-        </is>
-      </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t>CAROLINE CELLI</t>
-        </is>
-      </c>
-      <c r="K12" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="L12" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>45833.54652777778</v>
-      </c>
-      <c r="N12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P12" s="5" t="inlineStr">
-        <is>
-          <t>OFF LINE</t>
-        </is>
-      </c>
-      <c r="Q12" s="5" t="inlineStr">
-        <is>
-          <t>Cartão de crédito</t>
-        </is>
-      </c>
-      <c r="R12" s="5" t="inlineStr">
-        <is>
-          <t>Cartão de crédito</t>
-        </is>
-      </c>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>Aéreo</t>
-        </is>
-      </c>
-      <c r="T12" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U12" s="5" t="inlineStr">
-        <is>
-          <t>Grupo Kontrip</t>
-        </is>
-      </c>
-      <c r="V12" s="5" t="inlineStr">
-        <is>
-          <t>Mauro Goncalve Antonelli</t>
-        </is>
-      </c>
-      <c r="W12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X12" s="5" t="inlineStr">
-        <is>
-          <t>Azul Linhas Aereas</t>
-        </is>
-      </c>
-      <c r="Y12" s="5" t="n">
-        <v>3023299809</v>
-      </c>
-      <c r="Z12" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AA12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB12" s="5" t="n">
-        <v>1574.88</v>
-      </c>
-      <c r="AC12" s="5" t="n">
-        <v>46.72</v>
-      </c>
-      <c r="AD12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="5" t="n">
-        <v>141.74</v>
-      </c>
-      <c r="AI12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ12" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
-        </is>
-      </c>
-      <c r="AK12" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AL12" s="5" t="inlineStr">
-        <is>
-          <t>Falta de informação Gerencial</t>
-        </is>
-      </c>
-      <c r="AM12" s="5" t="inlineStr">
-        <is>
-          <t>Rateio de centro de custo/projeto</t>
-        </is>
-      </c>
-      <c r="AN12" s="5" t="inlineStr">
-        <is>
-          <t>Dados Gerenciais</t>
-        </is>
-      </c>
-      <c r="AO12" s="5" t="inlineStr">
-        <is>
-          <t>Qualidade dos dados</t>
-        </is>
-      </c>
-      <c r="AP12" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP VIAGENS</t>
-        </is>
-      </c>
-      <c r="AQ12" s="5" t="inlineStr">
-        <is>
-          <t>Operações - KONTRIP</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="n">
-        <v>22459766</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>23299457</v>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>ACC</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>45834.49883101852</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>45834.70751157407</v>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>03 a 05 dias</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t>03 a 05 dias</t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="inlineStr">
-        <is>
-          <t>GRS1HB</t>
-        </is>
-      </c>
-      <c r="I13" s="5" t="inlineStr">
-        <is>
-          <t>MANUAL</t>
-        </is>
-      </c>
-      <c r="J13" s="5" t="inlineStr">
-        <is>
-          <t>SAMUEL SILVA</t>
-        </is>
-      </c>
-      <c r="K13" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="L13" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>45833.49861111111</v>
-      </c>
-      <c r="N13" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P13" s="5" t="inlineStr">
-        <is>
-          <t>OFF LINE</t>
-        </is>
-      </c>
-      <c r="Q13" s="5" t="inlineStr">
-        <is>
-          <t>Cartão de crédito</t>
-        </is>
-      </c>
-      <c r="R13" s="5" t="inlineStr">
-        <is>
-          <t>Cartão de crédito</t>
-        </is>
-      </c>
-      <c r="S13" s="5" t="inlineStr">
-        <is>
-          <t>Aéreo</t>
-        </is>
-      </c>
-      <c r="T13" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U13" s="5" t="inlineStr">
-        <is>
-          <t>Grupo Kontrip</t>
-        </is>
-      </c>
-      <c r="V13" s="5" t="inlineStr">
-        <is>
-          <t>Galzer Importacao e Exportacao Ltda</t>
-        </is>
-      </c>
-      <c r="W13" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X13" s="5" t="inlineStr">
-        <is>
-          <t>Azul Linhas Aereas</t>
-        </is>
-      </c>
-      <c r="Y13" s="5" t="n">
-        <v>3023299456</v>
-      </c>
-      <c r="Z13" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AA13" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB13" s="5" t="n">
-        <v>227.84</v>
-      </c>
-      <c r="AC13" s="5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="5" t="n">
-        <v>20.51</v>
-      </c>
-      <c r="AI13" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ13" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
-        </is>
-      </c>
-      <c r="AK13" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AL13" s="5" t="inlineStr">
-        <is>
-          <t>Falta de informação Gerencial</t>
-        </is>
-      </c>
-      <c r="AM13" s="5" t="inlineStr">
-        <is>
-          <t>Rateio de centro de custo/projeto</t>
-        </is>
-      </c>
-      <c r="AN13" s="5" t="inlineStr">
-        <is>
-          <t>Dados Gerenciais</t>
-        </is>
-      </c>
-      <c r="AO13" s="5" t="inlineStr">
-        <is>
-          <t>Qualidade dos dados</t>
-        </is>
-      </c>
-      <c r="AP13" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP VIAGENS</t>
-        </is>
-      </c>
-      <c r="AQ13" s="5" t="inlineStr">
-        <is>
-          <t>Operações - KONTRIP</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="n">
-        <v>22459866</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>23299554</v>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>ACC</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>45834.50763888889</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>45834.72603009259</v>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>03 a 05 dias</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr">
-        <is>
-          <t>03 a 05 dias</t>
-        </is>
-      </c>
-      <c r="H14" s="5" t="inlineStr">
-        <is>
-          <t>GLBGMG</t>
-        </is>
-      </c>
-      <c r="I14" s="5" t="inlineStr">
-        <is>
-          <t>MANUAL</t>
-        </is>
-      </c>
-      <c r="J14" s="5" t="inlineStr">
-        <is>
-          <t>CHARLLES RODRIGUES</t>
-        </is>
-      </c>
-      <c r="K14" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="L14" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="M14" s="6" t="n">
-        <v>45833.50763888889</v>
-      </c>
-      <c r="N14" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O14" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P14" s="5" t="inlineStr">
-        <is>
-          <t>OFF LINE</t>
-        </is>
-      </c>
-      <c r="Q14" s="5" t="inlineStr">
-        <is>
-          <t>Cartão de crédito</t>
-        </is>
-      </c>
-      <c r="R14" s="5" t="inlineStr">
-        <is>
-          <t>Cartão de crédito</t>
-        </is>
-      </c>
-      <c r="S14" s="5" t="inlineStr">
-        <is>
-          <t>Aéreo</t>
-        </is>
-      </c>
-      <c r="T14" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U14" s="5" t="inlineStr">
-        <is>
-          <t>Grupo Kontrip</t>
-        </is>
-      </c>
-      <c r="V14" s="5" t="inlineStr">
-        <is>
-          <t>Galzer Importacao e Exportacao Ltda</t>
-        </is>
-      </c>
-      <c r="W14" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X14" s="5" t="inlineStr">
-        <is>
-          <t>Azul Linhas Aereas</t>
-        </is>
-      </c>
-      <c r="Y14" s="5" t="n">
-        <v>3023299553</v>
-      </c>
-      <c r="Z14" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AA14" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB14" s="5" t="n">
-        <v>232.34</v>
-      </c>
-      <c r="AC14" s="5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="5" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="AI14" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ14" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
-        </is>
-      </c>
-      <c r="AK14" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AL14" s="5" t="inlineStr">
-        <is>
-          <t>Falta de informação Gerencial</t>
-        </is>
-      </c>
-      <c r="AM14" s="5" t="inlineStr">
-        <is>
-          <t>Rateio de centro de custo/projeto</t>
-        </is>
-      </c>
-      <c r="AN14" s="5" t="inlineStr">
-        <is>
-          <t>Dados Gerenciais</t>
-        </is>
-      </c>
-      <c r="AO14" s="5" t="inlineStr">
-        <is>
-          <t>Qualidade dos dados</t>
-        </is>
-      </c>
-      <c r="AP14" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP VIAGENS</t>
-        </is>
-      </c>
-      <c r="AQ14" s="5" t="inlineStr">
         <is>
           <t>Operações - KONTRIP</t>
         </is>
